--- a/Neighborhood_Search/data.xlsx
+++ b/Neighborhood_Search/data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D11403-91C6-422C-83DC-319EEF862F0D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="job_data_small" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Job</t>
   </si>
@@ -35,11 +36,14 @@
   <si>
     <t>wj</t>
   </si>
+  <si>
+    <t>From</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,16 +363,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,7 +386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -396,7 +400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -410,7 +414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -424,7 +428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -438,7 +442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -459,16 +463,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
       <c r="B1">
         <v>0</v>
       </c>
@@ -488,7 +495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -509,7 +516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -526,7 +533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -543,7 +550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -560,7 +567,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -577,7 +584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -600,16 +607,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -637,7 +644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -651,7 +658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -665,7 +672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -679,7 +686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -693,7 +700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -707,7 +714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -721,7 +728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -735,7 +742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -749,7 +756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -763,7 +770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -777,7 +784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -791,7 +798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -805,7 +812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -819,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -833,7 +840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -847,7 +854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -861,7 +868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -875,7 +882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -889,7 +896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -909,16 +916,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
       <c r="B1">
         <v>0</v>
       </c>
@@ -983,7 +993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1048,7 +1058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1110,7 +1120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1172,7 +1182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1234,7 +1244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1296,7 +1306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1358,7 +1368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1420,7 +1430,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1482,7 +1492,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1544,7 +1554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1606,7 +1616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1668,7 +1678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1730,7 +1740,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1792,7 +1802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1854,7 +1864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1916,7 +1926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1978,7 +1988,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2040,7 +2050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2102,7 +2112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2164,7 +2174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2226,7 +2236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
